--- a/PointsTiming/التجمع/Daily/تجمع يوم 13-7-2025.xlsx
+++ b/PointsTiming/التجمع/Daily/تجمع يوم 13-7-2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7510" tabRatio="926" activeTab="6"/>
+    <workbookView windowWidth="19200" windowHeight="7510" tabRatio="926"/>
   </bookViews>
   <sheets>
     <sheet name="1- اكتوبر وزايد" sheetId="1" r:id="rId1"/>
@@ -1928,7 +1928,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2173,9 +2173,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2544,12 +2541,12 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="$A7:$XFD7"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13636363636364" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -2574,7 +2571,7 @@
       <c r="F1" s="24"/>
     </row>
     <row r="2" ht="18.5" spans="1:6">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="100" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="23"/>
@@ -2646,15 +2643,15 @@
         <v>14</v>
       </c>
       <c r="B7" s="33">
-        <v>0.333333333333333</v>
+        <v>0.34375</v>
       </c>
       <c r="C7" s="33">
-        <v>0.340277777777778</v>
+        <v>0.350694444444444</v>
       </c>
       <c r="D7" s="50"/>
       <c r="E7" s="50"/>
       <c r="F7" s="33">
-        <v>0.350694444444444</v>
+        <v>0.361111111111111</v>
       </c>
     </row>
     <row r="8" ht="15.5" spans="1:6">
@@ -2668,7 +2665,7 @@
       <c r="F8" s="33"/>
     </row>
     <row r="9" ht="15.5" spans="1:6">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="101" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="50"/>
@@ -2710,7 +2707,7 @@
       <c r="F13" s="50"/>
     </row>
     <row r="14" ht="15.5" spans="1:6">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="101" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="50"/>
@@ -2728,7 +2725,7 @@
       <c r="F15" s="50"/>
     </row>
     <row r="16" ht="15.5" spans="1:6">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="101" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="50"/>
@@ -2889,7 +2886,7 @@
       <c r="F32" s="50"/>
     </row>
     <row r="33" ht="15.5" hidden="1" spans="1:6">
-      <c r="A33" s="103" t="s">
+      <c r="A33" s="102" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="50"/>
@@ -9014,7 +9011,7 @@
       <c r="A30" s="6"/>
     </row>
     <row r="31" ht="15.75" hidden="1" customHeight="1" spans="1:7">
-      <c r="A31" s="100" t="s">
+      <c r="A31" s="99" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="17"/>
@@ -9555,10 +9552,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="25.4272727272727" style="89" customWidth="1"/>
-    <col min="2" max="2" width="15" style="90" customWidth="1"/>
-    <col min="3" max="3" width="15.5727272727273" style="90" customWidth="1"/>
-    <col min="4" max="4" width="10.5727272727273" style="90" customWidth="1"/>
+    <col min="1" max="1" width="25.4272727272727" style="88" customWidth="1"/>
+    <col min="2" max="2" width="15" style="89" customWidth="1"/>
+    <col min="3" max="3" width="15.5727272727273" style="89" customWidth="1"/>
+    <col min="4" max="4" width="10.5727272727273" style="89" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" spans="1:4">
@@ -9578,50 +9575,50 @@
       <c r="D2" s="42"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" spans="1:4">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
     </row>
     <row r="4" ht="18.5" spans="1:4">
-      <c r="A4" s="91"/>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="90"/>
+      <c r="B4" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="91" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" ht="18.5" spans="1:4">
-      <c r="A5" s="91"/>
-      <c r="B5" s="93" t="s">
+      <c r="A5" s="90"/>
+      <c r="B5" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="92" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="93" t="s">
         <v>64</v>
       </c>
       <c r="B6" s="15"/>
-      <c r="C6" s="95"/>
+      <c r="C6" s="94"/>
       <c r="D6" s="15"/>
       <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="93" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="15">
@@ -9631,7 +9628,7 @@
       <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="93" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="15"/>
@@ -9641,7 +9638,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="93" t="s">
         <v>84</v>
       </c>
       <c r="B9" s="15">
@@ -9651,26 +9648,26 @@
       <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="95" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="15"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
       <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="97"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
     </row>
@@ -9703,7 +9700,7 @@
     <row r="16" spans="2:4">
       <c r="B16" s="15"/>
       <c r="C16" s="50"/>
-      <c r="D16" s="97"/>
+      <c r="D16" s="96"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="32" t="s">
@@ -9724,7 +9721,7 @@
     <row r="19" spans="2:4">
       <c r="B19" s="50"/>
       <c r="C19" s="50"/>
-      <c r="D19" s="97"/>
+      <c r="D19" s="96"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="32" t="s">
@@ -9778,28 +9775,28 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="32"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="97"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="96"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="98"/>
-      <c r="B28" s="99"/>
+      <c r="A28" s="97"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="50"/>
-      <c r="D28" s="97"/>
+      <c r="D28" s="96"/>
     </row>
     <row r="29" ht="17.25" hidden="1" customHeight="1" spans="1:4">
       <c r="A29" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="99"/>
+      <c r="B29" s="98"/>
       <c r="C29" s="50">
         <v>0.909722222222222</v>
       </c>
-      <c r="D29" s="99"/>
+      <c r="D29" s="98"/>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="90">
+      <c r="C32" s="89">
         <v>0</v>
       </c>
     </row>
@@ -9851,7 +9848,7 @@
   <sheetPr/>
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -9964,12 +9961,12 @@
       <c r="A9" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="86">
+      <c r="B9" s="15">
         <v>0.888888888888889</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="84"/>
-      <c r="E9" s="87"/>
+      <c r="E9" s="86"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:5">
       <c r="A10" s="33" t="s">
@@ -9977,7 +9974,7 @@
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="88"/>
+      <c r="D10" s="87"/>
       <c r="E10" s="17"/>
     </row>
     <row r="11" ht="16.5" customHeight="1" spans="1:5">
